--- a/Performance_improving/Research_for_compression_reprocessing.xlsx
+++ b/Performance_improving/Research_for_compression_reprocessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyh/Desktop/Capstone_1/KNUVI_Capstone_Project_2025-2/Performance_improving/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D054028C-78CB-114A-82B8-25012B69B47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3039160B-A24F-9F41-AD6F-AFE449CEEFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="880" windowWidth="16440" windowHeight="21280" xr2:uid="{EA154F9D-DF04-B047-AC81-6D2DF91E3E3D}"/>
+    <workbookView xWindow="1140" yWindow="880" windowWidth="16440" windowHeight="21280" xr2:uid="{EA154F9D-DF04-B047-AC81-6D2DF91E3E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>제목</t>
   </si>
@@ -101,13 +101,20 @@
     <t>The Visual Computer 2023</t>
   </si>
   <si>
-    <t>사진이 아닌 JPEG의 압축된 DCT 스펙트럼을 input으로 받음</t>
-  </si>
-  <si>
     <t>이중 JPEG 압축 중점</t>
   </si>
   <si>
     <t>Transformer + CNN 으로 연산 시간 줄임</t>
+  </si>
+  <si>
+    <t>사진이 아닌 JPEG의 압축된 DCT 스펙트럼을 input으로 받음 
+PSNR/SSIM 성능 우수</t>
+  </si>
+  <si>
+    <t>perceptual quality에 초점. LPIPS, FID, KID 등에서 좋은 성능</t>
+  </si>
+  <si>
+    <t>가벼운 모델, PSNR/SSIM 성능 우수</t>
   </si>
 </sst>
 </file>
@@ -399,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,12 +417,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,12 +457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,6 +491,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -834,19 +838,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92582773-E012-A848-A284-8006C2F22928}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="162" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8" style="9" customWidth="1"/>
-    <col min="5" max="5" width="41" style="9" customWidth="1"/>
-    <col min="6" max="7" width="6.6640625" style="9" customWidth="1"/>
-    <col min="8" max="10" width="0" style="1" hidden="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41" style="7" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" style="7" customWidth="1"/>
+    <col min="8" max="10" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -854,129 +858,133 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="24">
         <v>20</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
